--- a/powerbi/powerbi_sample_dataset/loan.xlsx
+++ b/powerbi/powerbi_sample_dataset/loan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunilnair/Documents/ByteSize Trainings/curriculum/powerbi/powerbi_sample_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58CA2AC-BFD3-544C-8A04-AF295C8C7579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187B8FBA-ED05-AC45-B540-097471697905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3948,8 +3948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H525"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="231" zoomScaleNormal="231" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="231" zoomScaleNormal="231" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4007,7 +4007,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="1">
-        <v>44874</v>
+        <v>44084</v>
       </c>
       <c r="G2">
         <v>64</v>
@@ -4033,7 +4033,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="1">
-        <v>44851</v>
+        <v>45221</v>
       </c>
       <c r="G3">
         <v>64</v>
@@ -4059,7 +4059,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="1">
-        <v>45024</v>
+        <v>44254</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -4085,7 +4085,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="1">
-        <v>43517</v>
+        <v>43969</v>
       </c>
       <c r="G5">
         <v>18</v>
@@ -4111,7 +4111,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="1">
-        <v>44070</v>
+        <v>43555</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -4137,7 +4137,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="1">
-        <v>44653</v>
+        <v>44879</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -4163,7 +4163,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="1">
-        <v>45057</v>
+        <v>44862</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -4189,7 +4189,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="1">
-        <v>44675</v>
+        <v>43800</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -4215,7 +4215,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="1">
-        <v>44595</v>
+        <v>43497</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -4241,7 +4241,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="1">
-        <v>44306</v>
+        <v>43843</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -4267,7 +4267,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="1">
-        <v>44457</v>
+        <v>44892</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -4293,7 +4293,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="1">
-        <v>45006</v>
+        <v>44054</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -4319,7 +4319,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="1">
-        <v>44009</v>
+        <v>44451</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -4345,7 +4345,7 @@
         <v>10</v>
       </c>
       <c r="F15" s="1">
-        <v>43532</v>
+        <v>43938</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -4371,7 +4371,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="1">
-        <v>44301</v>
+        <v>43799</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -4397,7 +4397,7 @@
         <v>10</v>
       </c>
       <c r="F17" s="1">
-        <v>44788</v>
+        <v>44141</v>
       </c>
       <c r="G17">
         <v>64</v>
@@ -4423,7 +4423,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="1">
-        <v>44260</v>
+        <v>44115</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -4449,7 +4449,7 @@
         <v>10</v>
       </c>
       <c r="F19" s="1">
-        <v>44815</v>
+        <v>44878</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -4475,7 +4475,7 @@
         <v>10</v>
       </c>
       <c r="F20" s="1">
-        <v>44318</v>
+        <v>44703</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -4501,7 +4501,7 @@
         <v>10</v>
       </c>
       <c r="F21" s="1">
-        <v>45183</v>
+        <v>44155</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -4527,7 +4527,7 @@
         <v>10</v>
       </c>
       <c r="F22" s="1">
-        <v>44239</v>
+        <v>44135</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -4553,7 +4553,7 @@
         <v>14</v>
       </c>
       <c r="F23" s="1">
-        <v>43928</v>
+        <v>44205</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -4579,7 +4579,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="1">
-        <v>44617</v>
+        <v>44059</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -4605,7 +4605,7 @@
         <v>10</v>
       </c>
       <c r="F25" s="1">
-        <v>44637</v>
+        <v>44206</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -4631,7 +4631,7 @@
         <v>14</v>
       </c>
       <c r="F26" s="1">
-        <v>44946</v>
+        <v>45168</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -4657,7 +4657,7 @@
         <v>10</v>
       </c>
       <c r="F27" s="1">
-        <v>44883</v>
+        <v>44276</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -4683,7 +4683,7 @@
         <v>14</v>
       </c>
       <c r="F28" s="1">
-        <v>43535</v>
+        <v>43821</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -4709,7 +4709,7 @@
         <v>10</v>
       </c>
       <c r="F29" s="1">
-        <v>43515</v>
+        <v>44937</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -4735,7 +4735,7 @@
         <v>14</v>
       </c>
       <c r="F30" s="1">
-        <v>45176</v>
+        <v>44057</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -4761,7 +4761,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="1">
-        <v>45056</v>
+        <v>44127</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -4787,7 +4787,7 @@
         <v>10</v>
       </c>
       <c r="F32" s="1">
-        <v>44555</v>
+        <v>43837</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -4813,7 +4813,7 @@
         <v>10</v>
       </c>
       <c r="F33" s="1">
-        <v>44717</v>
+        <v>43636</v>
       </c>
       <c r="G33">
         <v>59</v>
@@ -4839,7 +4839,7 @@
         <v>23</v>
       </c>
       <c r="F34" s="1">
-        <v>43985</v>
+        <v>43606</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -4865,7 +4865,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="1">
-        <v>44980</v>
+        <v>43617</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -4891,7 +4891,7 @@
         <v>10</v>
       </c>
       <c r="F36" s="1">
-        <v>44858</v>
+        <v>44264</v>
       </c>
       <c r="G36">
         <v>25</v>
@@ -4917,7 +4917,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="1">
-        <v>44273</v>
+        <v>43967</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -4943,7 +4943,7 @@
         <v>14</v>
       </c>
       <c r="F38" s="1">
-        <v>45078</v>
+        <v>44790</v>
       </c>
       <c r="G38">
         <v>64</v>
@@ -4969,7 +4969,7 @@
         <v>10</v>
       </c>
       <c r="F39" s="1">
-        <v>45028</v>
+        <v>44264</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -4995,7 +4995,7 @@
         <v>14</v>
       </c>
       <c r="F40" s="1">
-        <v>44789</v>
+        <v>45158</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -5021,7 +5021,7 @@
         <v>10</v>
       </c>
       <c r="F41" s="1">
-        <v>44076</v>
+        <v>44468</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -5047,7 +5047,7 @@
         <v>10</v>
       </c>
       <c r="F42" s="1">
-        <v>44215</v>
+        <v>44829</v>
       </c>
       <c r="G42">
         <v>64</v>
@@ -5073,7 +5073,7 @@
         <v>10</v>
       </c>
       <c r="F43" s="1">
-        <v>44812</v>
+        <v>45004</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -5099,7 +5099,7 @@
         <v>101</v>
       </c>
       <c r="F44" s="1">
-        <v>44401</v>
+        <v>45079</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -5125,7 +5125,7 @@
         <v>101</v>
       </c>
       <c r="F45" s="1">
-        <v>44042</v>
+        <v>45053</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -5151,7 +5151,7 @@
         <v>14</v>
       </c>
       <c r="F46" s="1">
-        <v>43620</v>
+        <v>44492</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -5177,7 +5177,7 @@
         <v>14</v>
       </c>
       <c r="F47" s="1">
-        <v>44502</v>
+        <v>45216</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -5203,7 +5203,7 @@
         <v>10</v>
       </c>
       <c r="F48" s="1">
-        <v>44594</v>
+        <v>43644</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -5229,7 +5229,7 @@
         <v>10</v>
       </c>
       <c r="F49" s="1">
-        <v>44713</v>
+        <v>43493</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -5255,7 +5255,7 @@
         <v>10</v>
       </c>
       <c r="F50" s="1">
-        <v>44325</v>
+        <v>44684</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -5281,7 +5281,7 @@
         <v>10</v>
       </c>
       <c r="F51" s="1">
-        <v>44829</v>
+        <v>45000</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -5307,7 +5307,7 @@
         <v>23</v>
       </c>
       <c r="F52" s="1">
-        <v>44287</v>
+        <v>44946</v>
       </c>
       <c r="G52">
         <v>59</v>
@@ -5333,7 +5333,7 @@
         <v>14</v>
       </c>
       <c r="F53" s="1">
-        <v>45097</v>
+        <v>43579</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -5359,7 +5359,7 @@
         <v>10</v>
       </c>
       <c r="F54" s="1">
-        <v>43776</v>
+        <v>44000</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5385,7 +5385,7 @@
         <v>10</v>
       </c>
       <c r="F55" s="1">
-        <v>43792</v>
+        <v>44204</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5411,7 +5411,7 @@
         <v>10</v>
       </c>
       <c r="F56" s="1">
-        <v>44154</v>
+        <v>44547</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5437,7 +5437,7 @@
         <v>23</v>
       </c>
       <c r="F57" s="1">
-        <v>44666</v>
+        <v>43621</v>
       </c>
       <c r="G57">
         <v>70</v>
@@ -5463,7 +5463,7 @@
         <v>10</v>
       </c>
       <c r="F58" s="1">
-        <v>43894</v>
+        <v>44228</v>
       </c>
       <c r="G58">
         <v>25</v>
@@ -5489,7 +5489,7 @@
         <v>14</v>
       </c>
       <c r="F59" s="1">
-        <v>44948</v>
+        <v>44637</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5515,7 +5515,7 @@
         <v>14</v>
       </c>
       <c r="F60" s="1">
-        <v>44859</v>
+        <v>44913</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5541,7 +5541,7 @@
         <v>10</v>
       </c>
       <c r="F61" s="1">
-        <v>44322</v>
+        <v>44279</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5567,7 +5567,7 @@
         <v>10</v>
       </c>
       <c r="F62" s="1">
-        <v>44636</v>
+        <v>44452</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5593,7 +5593,7 @@
         <v>23</v>
       </c>
       <c r="F63" s="1">
-        <v>44224</v>
+        <v>43837</v>
       </c>
       <c r="G63">
         <v>64</v>
@@ -5619,7 +5619,7 @@
         <v>14</v>
       </c>
       <c r="F64" s="1">
-        <v>44800</v>
+        <v>45117</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5645,7 +5645,7 @@
         <v>10</v>
       </c>
       <c r="F65" s="1">
-        <v>43846</v>
+        <v>44333</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -5671,7 +5671,7 @@
         <v>14</v>
       </c>
       <c r="F66" s="1">
-        <v>43645</v>
+        <v>44789</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -5697,7 +5697,7 @@
         <v>10</v>
       </c>
       <c r="F67" s="1">
-        <v>44762</v>
+        <v>45216</v>
       </c>
       <c r="G67">
         <v>64</v>
@@ -5723,7 +5723,7 @@
         <v>10</v>
       </c>
       <c r="F68" s="1">
-        <v>44356</v>
+        <v>43856</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -5749,7 +5749,7 @@
         <v>10</v>
       </c>
       <c r="F69" s="1">
-        <v>44302</v>
+        <v>45076</v>
       </c>
       <c r="G69">
         <v>64</v>
@@ -5775,7 +5775,7 @@
         <v>10</v>
       </c>
       <c r="F70" s="1">
-        <v>45120</v>
+        <v>44731</v>
       </c>
       <c r="G70">
         <v>59</v>
@@ -5801,7 +5801,7 @@
         <v>10</v>
       </c>
       <c r="F71" s="1">
-        <v>44599</v>
+        <v>43560</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -5827,7 +5827,7 @@
         <v>14</v>
       </c>
       <c r="F72" s="1">
-        <v>44085</v>
+        <v>45191</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -5853,7 +5853,7 @@
         <v>10</v>
       </c>
       <c r="F73" s="1">
-        <v>43601</v>
+        <v>44583</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -5879,7 +5879,7 @@
         <v>10</v>
       </c>
       <c r="F74" s="1">
-        <v>44035</v>
+        <v>44254</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -5905,7 +5905,7 @@
         <v>14</v>
       </c>
       <c r="F75" s="1">
-        <v>44705</v>
+        <v>44139</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -5931,7 +5931,7 @@
         <v>14</v>
       </c>
       <c r="F76" s="1">
-        <v>45173</v>
+        <v>44878</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -5957,7 +5957,7 @@
         <v>14</v>
       </c>
       <c r="F77" s="1">
-        <v>44088</v>
+        <v>45036</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -5983,7 +5983,7 @@
         <v>14</v>
       </c>
       <c r="F78" s="1">
-        <v>45074</v>
+        <v>43955</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -6009,7 +6009,7 @@
         <v>23</v>
       </c>
       <c r="F79" s="1">
-        <v>44442</v>
+        <v>45027</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -6035,7 +6035,7 @@
         <v>101</v>
       </c>
       <c r="F80" s="1">
-        <v>43543</v>
+        <v>44957</v>
       </c>
       <c r="G80">
         <v>18</v>
@@ -6061,7 +6061,7 @@
         <v>14</v>
       </c>
       <c r="F81" s="1">
-        <v>44857</v>
+        <v>44589</v>
       </c>
       <c r="G81">
         <v>59</v>
@@ -6087,7 +6087,7 @@
         <v>10</v>
       </c>
       <c r="F82" s="1">
-        <v>44194</v>
+        <v>43799</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -6113,7 +6113,7 @@
         <v>10</v>
       </c>
       <c r="F83" s="1">
-        <v>44921</v>
+        <v>44799</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -6139,7 +6139,7 @@
         <v>10</v>
       </c>
       <c r="F84" s="1">
-        <v>43928</v>
+        <v>45005</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         <v>14</v>
       </c>
       <c r="F85" s="1">
-        <v>43576</v>
+        <v>43650</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -6191,7 +6191,7 @@
         <v>101</v>
       </c>
       <c r="F86" s="1">
-        <v>44723</v>
+        <v>44991</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -6217,7 +6217,7 @@
         <v>10</v>
       </c>
       <c r="F87" s="1">
-        <v>43504</v>
+        <v>45117</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -6243,7 +6243,7 @@
         <v>14</v>
       </c>
       <c r="F88" s="1">
-        <v>43520</v>
+        <v>44239</v>
       </c>
       <c r="G88">
         <v>64</v>
@@ -6269,7 +6269,7 @@
         <v>10</v>
       </c>
       <c r="F89" s="1">
-        <v>44516</v>
+        <v>44353</v>
       </c>
       <c r="G89">
         <v>70</v>
@@ -6295,7 +6295,7 @@
         <v>10</v>
       </c>
       <c r="F90" s="1">
-        <v>44360</v>
+        <v>44999</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -6321,7 +6321,7 @@
         <v>10</v>
       </c>
       <c r="F91" s="1">
-        <v>44260</v>
+        <v>43508</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -6347,7 +6347,7 @@
         <v>14</v>
       </c>
       <c r="F92" s="1">
-        <v>44931</v>
+        <v>45079</v>
       </c>
       <c r="G92">
         <v>64</v>
@@ -6373,7 +6373,7 @@
         <v>10</v>
       </c>
       <c r="F93" s="1">
-        <v>44143</v>
+        <v>45001</v>
       </c>
       <c r="G93">
         <v>64</v>
@@ -6399,7 +6399,7 @@
         <v>10</v>
       </c>
       <c r="F94" s="1">
-        <v>43885</v>
+        <v>43750</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -6425,7 +6425,7 @@
         <v>14</v>
       </c>
       <c r="F95" s="1">
-        <v>43839</v>
+        <v>43721</v>
       </c>
       <c r="G95">
         <v>64</v>
@@ -6451,7 +6451,7 @@
         <v>101</v>
       </c>
       <c r="F96" s="1">
-        <v>43852</v>
+        <v>44934</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -6477,7 +6477,7 @@
         <v>10</v>
       </c>
       <c r="F97" s="1">
-        <v>44347</v>
+        <v>44419</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -6503,7 +6503,7 @@
         <v>10</v>
       </c>
       <c r="F98" s="1">
-        <v>43716</v>
+        <v>44137</v>
       </c>
       <c r="G98">
         <v>59</v>
@@ -6529,7 +6529,7 @@
         <v>10</v>
       </c>
       <c r="F99" s="1">
-        <v>45138</v>
+        <v>45001</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -6555,7 +6555,7 @@
         <v>10</v>
       </c>
       <c r="F100" s="1">
-        <v>43484</v>
+        <v>44838</v>
       </c>
       <c r="G100">
         <v>64</v>
@@ -6581,7 +6581,7 @@
         <v>10</v>
       </c>
       <c r="F101" s="1">
-        <v>45169</v>
+        <v>44765</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -6607,7 +6607,7 @@
         <v>14</v>
       </c>
       <c r="F102" s="1">
-        <v>44977</v>
+        <v>44677</v>
       </c>
       <c r="G102">
         <v>59</v>
@@ -6633,7 +6633,7 @@
         <v>10</v>
       </c>
       <c r="F103" s="1">
-        <v>44564</v>
+        <v>45041</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -6659,7 +6659,7 @@
         <v>10</v>
       </c>
       <c r="F104" s="1">
-        <v>44773</v>
+        <v>44889</v>
       </c>
       <c r="G104">
         <v>70</v>
@@ -6685,7 +6685,7 @@
         <v>10</v>
       </c>
       <c r="F105" s="1">
-        <v>43645</v>
+        <v>44938</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -6711,7 +6711,7 @@
         <v>10</v>
       </c>
       <c r="F106" s="1">
-        <v>43489</v>
+        <v>43516</v>
       </c>
       <c r="G106">
         <v>59</v>
@@ -6737,7 +6737,7 @@
         <v>10</v>
       </c>
       <c r="F107" s="1">
-        <v>44873</v>
+        <v>43611</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -6763,7 +6763,7 @@
         <v>14</v>
       </c>
       <c r="F108" s="1">
-        <v>44835</v>
+        <v>44577</v>
       </c>
       <c r="G108">
         <v>64</v>
@@ -6789,7 +6789,7 @@
         <v>101</v>
       </c>
       <c r="F109" s="1">
-        <v>43893</v>
+        <v>45033</v>
       </c>
       <c r="G109">
         <v>64</v>
@@ -6815,7 +6815,7 @@
         <v>10</v>
       </c>
       <c r="F110" s="1">
-        <v>44810</v>
+        <v>43988</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -6841,7 +6841,7 @@
         <v>10</v>
       </c>
       <c r="F111" s="1">
-        <v>44645</v>
+        <v>44672</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -6867,7 +6867,7 @@
         <v>10</v>
       </c>
       <c r="F112" s="1">
-        <v>44967</v>
+        <v>44119</v>
       </c>
       <c r="G112">
         <v>64</v>
@@ -6893,7 +6893,7 @@
         <v>14</v>
       </c>
       <c r="F113" s="1">
-        <v>44210</v>
+        <v>44436</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -6919,7 +6919,7 @@
         <v>10</v>
       </c>
       <c r="F114" s="1">
-        <v>43589</v>
+        <v>43610</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -6945,7 +6945,7 @@
         <v>10</v>
       </c>
       <c r="F115" s="1">
-        <v>44780</v>
+        <v>44512</v>
       </c>
       <c r="G115">
         <v>64</v>
@@ -6971,7 +6971,7 @@
         <v>10</v>
       </c>
       <c r="F116" s="1">
-        <v>43509</v>
+        <v>44631</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -6997,7 +6997,7 @@
         <v>101</v>
       </c>
       <c r="F117" s="1">
-        <v>43748</v>
+        <v>43505</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -7023,7 +7023,7 @@
         <v>10</v>
       </c>
       <c r="F118" s="1">
-        <v>44512</v>
+        <v>45061</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -7049,7 +7049,7 @@
         <v>10</v>
       </c>
       <c r="F119" s="1">
-        <v>43518</v>
+        <v>43722</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -7075,7 +7075,7 @@
         <v>10</v>
       </c>
       <c r="F120" s="1">
-        <v>43538</v>
+        <v>45016</v>
       </c>
       <c r="G120">
         <v>59</v>
@@ -7101,7 +7101,7 @@
         <v>10</v>
       </c>
       <c r="F121" s="1">
-        <v>44008</v>
+        <v>45167</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -7127,7 +7127,7 @@
         <v>14</v>
       </c>
       <c r="F122" s="1">
-        <v>44577</v>
+        <v>44751</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -7153,7 +7153,7 @@
         <v>14</v>
       </c>
       <c r="F123" s="1">
-        <v>44584</v>
+        <v>44295</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -7179,7 +7179,7 @@
         <v>14</v>
       </c>
       <c r="F124" s="1">
-        <v>44024</v>
+        <v>44536</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -7205,7 +7205,7 @@
         <v>10</v>
       </c>
       <c r="F125" s="1">
-        <v>44438</v>
+        <v>44566</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -7231,7 +7231,7 @@
         <v>10</v>
       </c>
       <c r="F126" s="1">
-        <v>44049</v>
+        <v>43621</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -7257,7 +7257,7 @@
         <v>10</v>
       </c>
       <c r="F127" s="1">
-        <v>44645</v>
+        <v>44933</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -7283,7 +7283,7 @@
         <v>10</v>
       </c>
       <c r="F128" s="1">
-        <v>45164</v>
+        <v>44248</v>
       </c>
       <c r="G128">
         <v>59</v>
@@ -7309,7 +7309,7 @@
         <v>10</v>
       </c>
       <c r="F129" s="1">
-        <v>44063</v>
+        <v>43604</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -7335,7 +7335,7 @@
         <v>101</v>
       </c>
       <c r="F130" s="1">
-        <v>44176</v>
+        <v>43762</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -7361,7 +7361,7 @@
         <v>10</v>
       </c>
       <c r="F131" s="1">
-        <v>44490</v>
+        <v>44133</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -7387,7 +7387,7 @@
         <v>10</v>
       </c>
       <c r="F132" s="1">
-        <v>44404</v>
+        <v>43881</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -7413,7 +7413,7 @@
         <v>10</v>
       </c>
       <c r="F133" s="1">
-        <v>43555</v>
+        <v>45159</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -7439,7 +7439,7 @@
         <v>10</v>
       </c>
       <c r="F134" s="1">
-        <v>45105</v>
+        <v>44785</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -7465,7 +7465,7 @@
         <v>10</v>
       </c>
       <c r="F135" s="1">
-        <v>45146</v>
+        <v>44529</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -7491,7 +7491,7 @@
         <v>10</v>
       </c>
       <c r="F136" s="1">
-        <v>43855</v>
+        <v>44586</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -7517,7 +7517,7 @@
         <v>14</v>
       </c>
       <c r="F137" s="1">
-        <v>43770</v>
+        <v>43557</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -7543,7 +7543,7 @@
         <v>10</v>
       </c>
       <c r="F138" s="1">
-        <v>44439</v>
+        <v>44344</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -7569,7 +7569,7 @@
         <v>14</v>
       </c>
       <c r="F139" s="1">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -7595,7 +7595,7 @@
         <v>10</v>
       </c>
       <c r="F140" s="1">
-        <v>44136</v>
+        <v>43611</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -7621,7 +7621,7 @@
         <v>14</v>
       </c>
       <c r="F141" s="1">
-        <v>45142</v>
+        <v>45100</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -7647,7 +7647,7 @@
         <v>14</v>
       </c>
       <c r="F142" s="1">
-        <v>44940</v>
+        <v>43629</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -7673,7 +7673,7 @@
         <v>14</v>
       </c>
       <c r="F143" s="1">
-        <v>44531</v>
+        <v>43656</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -7699,7 +7699,7 @@
         <v>10</v>
       </c>
       <c r="F144" s="1">
-        <v>43471</v>
+        <v>43992</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -7725,7 +7725,7 @@
         <v>10</v>
       </c>
       <c r="F145" s="1">
-        <v>43581</v>
+        <v>45181</v>
       </c>
       <c r="G145">
         <v>64</v>
@@ -7751,7 +7751,7 @@
         <v>10</v>
       </c>
       <c r="F146" s="1">
-        <v>43879</v>
+        <v>45201</v>
       </c>
       <c r="G146">
         <v>64</v>
@@ -7777,7 +7777,7 @@
         <v>14</v>
       </c>
       <c r="F147" s="1">
-        <v>43603</v>
+        <v>44993</v>
       </c>
       <c r="G147">
         <v>59</v>
@@ -7803,7 +7803,7 @@
         <v>10</v>
       </c>
       <c r="F148" s="1">
-        <v>43483</v>
+        <v>43930</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -7829,7 +7829,7 @@
         <v>101</v>
       </c>
       <c r="F149" s="1">
-        <v>43813</v>
+        <v>43826</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -7855,7 +7855,7 @@
         <v>10</v>
       </c>
       <c r="F150" s="1">
-        <v>44703</v>
+        <v>44670</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -7881,7 +7881,7 @@
         <v>101</v>
       </c>
       <c r="F151" s="1">
-        <v>43490</v>
+        <v>44596</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -7907,7 +7907,7 @@
         <v>23</v>
       </c>
       <c r="F152" s="1">
-        <v>45165</v>
+        <v>44042</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -7933,7 +7933,7 @@
         <v>14</v>
       </c>
       <c r="F153" s="1">
-        <v>44453</v>
+        <v>44812</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -7959,7 +7959,7 @@
         <v>10</v>
       </c>
       <c r="F154" s="1">
-        <v>44648</v>
+        <v>43988</v>
       </c>
       <c r="G154">
         <v>18</v>
@@ -7985,7 +7985,7 @@
         <v>10</v>
       </c>
       <c r="F155" s="1">
-        <v>44081</v>
+        <v>44672</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -8011,7 +8011,7 @@
         <v>10</v>
       </c>
       <c r="F156" s="1">
-        <v>44404</v>
+        <v>44568</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -8037,7 +8037,7 @@
         <v>14</v>
       </c>
       <c r="F157" s="1">
-        <v>44121</v>
+        <v>44469</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -8063,7 +8063,7 @@
         <v>10</v>
       </c>
       <c r="F158" s="1">
-        <v>44531</v>
+        <v>45051</v>
       </c>
       <c r="G158">
         <v>59</v>
@@ -8089,7 +8089,7 @@
         <v>10</v>
       </c>
       <c r="F159" s="1">
-        <v>43562</v>
+        <v>43706</v>
       </c>
       <c r="G159">
         <v>59</v>
@@ -8115,7 +8115,7 @@
         <v>101</v>
       </c>
       <c r="F160" s="1">
-        <v>43481</v>
+        <v>44818</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -8141,7 +8141,7 @@
         <v>23</v>
       </c>
       <c r="F161" s="1">
-        <v>43530</v>
+        <v>45105</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -8167,7 +8167,7 @@
         <v>10</v>
       </c>
       <c r="F162" s="1">
-        <v>43881</v>
+        <v>45136</v>
       </c>
       <c r="G162">
         <v>64</v>
@@ -8193,7 +8193,7 @@
         <v>10</v>
       </c>
       <c r="F163" s="1">
-        <v>43944</v>
+        <v>44537</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -8219,7 +8219,7 @@
         <v>10</v>
       </c>
       <c r="F164" s="1">
-        <v>45141</v>
+        <v>43602</v>
       </c>
       <c r="G164">
         <v>18</v>
@@ -8245,7 +8245,7 @@
         <v>10</v>
       </c>
       <c r="F165" s="1">
-        <v>44247</v>
+        <v>44973</v>
       </c>
       <c r="G165">
         <v>64</v>
@@ -8271,7 +8271,7 @@
         <v>10</v>
       </c>
       <c r="F166" s="1">
-        <v>44938</v>
+        <v>44334</v>
       </c>
       <c r="G166">
         <v>64</v>
@@ -8297,7 +8297,7 @@
         <v>14</v>
       </c>
       <c r="F167" s="1">
-        <v>44212</v>
+        <v>44827</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -8323,7 +8323,7 @@
         <v>10</v>
       </c>
       <c r="F168" s="1">
-        <v>44022</v>
+        <v>43522</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -8349,7 +8349,7 @@
         <v>10</v>
       </c>
       <c r="F169" s="1">
-        <v>43839</v>
+        <v>44991</v>
       </c>
       <c r="G169">
         <v>18</v>
@@ -8375,7 +8375,7 @@
         <v>101</v>
       </c>
       <c r="F170" s="1">
-        <v>44986</v>
+        <v>44184</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -8401,7 +8401,7 @@
         <v>14</v>
       </c>
       <c r="F171" s="1">
-        <v>44282</v>
+        <v>44380</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -8427,7 +8427,7 @@
         <v>10</v>
       </c>
       <c r="F172" s="1">
-        <v>43837</v>
+        <v>44739</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -8453,7 +8453,7 @@
         <v>10</v>
       </c>
       <c r="F173" s="1">
-        <v>44427</v>
+        <v>44813</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -8479,7 +8479,7 @@
         <v>10</v>
       </c>
       <c r="F174" s="1">
-        <v>43652</v>
+        <v>44075</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -8505,7 +8505,7 @@
         <v>10</v>
       </c>
       <c r="F175" s="1">
-        <v>43483</v>
+        <v>44124</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -8531,7 +8531,7 @@
         <v>10</v>
       </c>
       <c r="F176" s="1">
-        <v>45182</v>
+        <v>44692</v>
       </c>
       <c r="G176">
         <v>64</v>
@@ -8557,7 +8557,7 @@
         <v>10</v>
       </c>
       <c r="F177" s="1">
-        <v>45122</v>
+        <v>45007</v>
       </c>
       <c r="G177">
         <v>59</v>
@@ -8583,7 +8583,7 @@
         <v>14</v>
       </c>
       <c r="F178" s="1">
-        <v>44590</v>
+        <v>44000</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -8609,7 +8609,7 @@
         <v>23</v>
       </c>
       <c r="F179" s="1">
-        <v>44782</v>
+        <v>44973</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -8635,7 +8635,7 @@
         <v>14</v>
       </c>
       <c r="F180" s="1">
-        <v>44888</v>
+        <v>44909</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -8661,7 +8661,7 @@
         <v>10</v>
       </c>
       <c r="F181" s="1">
-        <v>45087</v>
+        <v>43588</v>
       </c>
       <c r="G181">
         <v>59</v>
@@ -8687,7 +8687,7 @@
         <v>10</v>
       </c>
       <c r="F182" s="1">
-        <v>44623</v>
+        <v>43851</v>
       </c>
       <c r="G182">
         <v>18</v>
@@ -8713,7 +8713,7 @@
         <v>10</v>
       </c>
       <c r="F183" s="1">
-        <v>43887</v>
+        <v>44325</v>
       </c>
       <c r="G183">
         <v>1</v>
@@ -8739,7 +8739,7 @@
         <v>101</v>
       </c>
       <c r="F184" s="1">
-        <v>44183</v>
+        <v>45087</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -8765,7 +8765,7 @@
         <v>10</v>
       </c>
       <c r="F185" s="1">
-        <v>44071</v>
+        <v>45005</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -8791,7 +8791,7 @@
         <v>10</v>
       </c>
       <c r="F186" s="1">
-        <v>43821</v>
+        <v>44286</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -8817,7 +8817,7 @@
         <v>14</v>
       </c>
       <c r="F187" s="1">
-        <v>43543</v>
+        <v>44959</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -8843,7 +8843,7 @@
         <v>10</v>
       </c>
       <c r="F188" s="1">
-        <v>43885</v>
+        <v>44146</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -8869,7 +8869,7 @@
         <v>10</v>
       </c>
       <c r="F189" s="1">
-        <v>44850</v>
+        <v>43967</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -8895,7 +8895,7 @@
         <v>10</v>
       </c>
       <c r="F190" s="1">
-        <v>44550</v>
+        <v>44452</v>
       </c>
       <c r="G190">
         <v>64</v>
@@ -8921,7 +8921,7 @@
         <v>10</v>
       </c>
       <c r="F191" s="1">
-        <v>43529</v>
+        <v>43478</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -8947,7 +8947,7 @@
         <v>10</v>
       </c>
       <c r="F192" s="1">
-        <v>45201</v>
+        <v>44096</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         <v>14</v>
       </c>
       <c r="F193" s="1">
-        <v>44137</v>
+        <v>44689</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -8999,7 +8999,7 @@
         <v>101</v>
       </c>
       <c r="F194" s="1">
-        <v>44232</v>
+        <v>43617</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -9025,7 +9025,7 @@
         <v>10</v>
       </c>
       <c r="F195" s="1">
-        <v>44584</v>
+        <v>45121</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -9051,7 +9051,7 @@
         <v>10</v>
       </c>
       <c r="F196" s="1">
-        <v>43679</v>
+        <v>43539</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -9077,7 +9077,7 @@
         <v>10</v>
       </c>
       <c r="F197" s="1">
-        <v>44781</v>
+        <v>43727</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -9103,7 +9103,7 @@
         <v>10</v>
       </c>
       <c r="F198" s="1">
-        <v>44076</v>
+        <v>44775</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -9129,7 +9129,7 @@
         <v>14</v>
       </c>
       <c r="F199" s="1">
-        <v>44734</v>
+        <v>44088</v>
       </c>
       <c r="G199">
         <v>1</v>
@@ -9155,7 +9155,7 @@
         <v>101</v>
       </c>
       <c r="F200" s="1">
-        <v>44115</v>
+        <v>43682</v>
       </c>
       <c r="G200">
         <v>1</v>
@@ -9181,7 +9181,7 @@
         <v>23</v>
       </c>
       <c r="F201" s="1">
-        <v>44038</v>
+        <v>44296</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -9207,7 +9207,7 @@
         <v>10</v>
       </c>
       <c r="F202" s="1">
-        <v>44384</v>
+        <v>44928</v>
       </c>
       <c r="G202">
         <v>59</v>
@@ -9233,7 +9233,7 @@
         <v>14</v>
       </c>
       <c r="F203" s="1">
-        <v>44593</v>
+        <v>45050</v>
       </c>
       <c r="G203">
         <v>1</v>
@@ -9259,7 +9259,7 @@
         <v>10</v>
       </c>
       <c r="F204" s="1">
-        <v>44330</v>
+        <v>44580</v>
       </c>
       <c r="G204">
         <v>70</v>
@@ -9285,7 +9285,7 @@
         <v>14</v>
       </c>
       <c r="F205" s="1">
-        <v>43591</v>
+        <v>44720</v>
       </c>
       <c r="G205">
         <v>59</v>
@@ -9311,7 +9311,7 @@
         <v>10</v>
       </c>
       <c r="F206" s="1">
-        <v>43821</v>
+        <v>43665</v>
       </c>
       <c r="G206">
         <v>1</v>
@@ -9337,7 +9337,7 @@
         <v>14</v>
       </c>
       <c r="F207" s="1">
-        <v>44794</v>
+        <v>45174</v>
       </c>
       <c r="G207">
         <v>1</v>
@@ -9363,7 +9363,7 @@
         <v>14</v>
       </c>
       <c r="F208" s="1">
-        <v>45039</v>
+        <v>44253</v>
       </c>
       <c r="G208">
         <v>1</v>
@@ -9389,7 +9389,7 @@
         <v>23</v>
       </c>
       <c r="F209" s="1">
-        <v>44209</v>
+        <v>44389</v>
       </c>
       <c r="G209">
         <v>1</v>
@@ -9415,7 +9415,7 @@
         <v>23</v>
       </c>
       <c r="F210" s="1">
-        <v>44917</v>
+        <v>44812</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -9441,7 +9441,7 @@
         <v>10</v>
       </c>
       <c r="F211" s="1">
-        <v>44715</v>
+        <v>44907</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -9467,7 +9467,7 @@
         <v>10</v>
       </c>
       <c r="F212" s="1">
-        <v>44076</v>
+        <v>44857</v>
       </c>
       <c r="G212">
         <v>1</v>
@@ -9493,7 +9493,7 @@
         <v>101</v>
       </c>
       <c r="F213" s="1">
-        <v>44567</v>
+        <v>44298</v>
       </c>
       <c r="G213">
         <v>1</v>
@@ -9519,7 +9519,7 @@
         <v>14</v>
       </c>
       <c r="F214" s="1">
-        <v>44032</v>
+        <v>44357</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -9545,7 +9545,7 @@
         <v>10</v>
       </c>
       <c r="F215" s="1">
-        <v>44560</v>
+        <v>44539</v>
       </c>
       <c r="G215">
         <v>64</v>
@@ -9571,7 +9571,7 @@
         <v>101</v>
       </c>
       <c r="F216" s="1">
-        <v>45165</v>
+        <v>44122</v>
       </c>
       <c r="G216">
         <v>1</v>
@@ -9597,7 +9597,7 @@
         <v>10</v>
       </c>
       <c r="F217" s="1">
-        <v>44031</v>
+        <v>44169</v>
       </c>
       <c r="G217">
         <v>1</v>
@@ -9623,7 +9623,7 @@
         <v>10</v>
       </c>
       <c r="F218" s="1">
-        <v>44874</v>
+        <v>43821</v>
       </c>
       <c r="G218">
         <v>59</v>
@@ -9649,7 +9649,7 @@
         <v>14</v>
       </c>
       <c r="F219" s="1">
-        <v>43759</v>
+        <v>43501</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -9675,7 +9675,7 @@
         <v>10</v>
       </c>
       <c r="F220" s="1">
-        <v>45154</v>
+        <v>43654</v>
       </c>
       <c r="G220">
         <v>1</v>
@@ -9701,7 +9701,7 @@
         <v>14</v>
       </c>
       <c r="F221" s="1">
-        <v>44486</v>
+        <v>44221</v>
       </c>
       <c r="G221">
         <v>1</v>
@@ -9727,7 +9727,7 @@
         <v>14</v>
       </c>
       <c r="F222" s="1">
-        <v>44127</v>
+        <v>43771</v>
       </c>
       <c r="G222">
         <v>1</v>
@@ -9753,7 +9753,7 @@
         <v>10</v>
       </c>
       <c r="F223" s="1">
-        <v>43682</v>
+        <v>43671</v>
       </c>
       <c r="G223">
         <v>1</v>
@@ -9779,7 +9779,7 @@
         <v>10</v>
       </c>
       <c r="F224" s="1">
-        <v>44545</v>
+        <v>43647</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -9805,7 +9805,7 @@
         <v>14</v>
       </c>
       <c r="F225" s="1">
-        <v>45132</v>
+        <v>44278</v>
       </c>
       <c r="G225">
         <v>59</v>
@@ -9831,7 +9831,7 @@
         <v>10</v>
       </c>
       <c r="F226" s="1">
-        <v>43593</v>
+        <v>44015</v>
       </c>
       <c r="G226">
         <v>1</v>
@@ -9857,7 +9857,7 @@
         <v>10</v>
       </c>
       <c r="F227" s="1">
-        <v>44278</v>
+        <v>43558</v>
       </c>
       <c r="G227">
         <v>46</v>
@@ -9883,7 +9883,7 @@
         <v>14</v>
       </c>
       <c r="F228" s="1">
-        <v>43930</v>
+        <v>44173</v>
       </c>
       <c r="G228">
         <v>1</v>
@@ -9909,7 +9909,7 @@
         <v>10</v>
       </c>
       <c r="F229" s="1">
-        <v>44698</v>
+        <v>43625</v>
       </c>
       <c r="G229">
         <v>1</v>
@@ -9935,7 +9935,7 @@
         <v>14</v>
       </c>
       <c r="F230" s="1">
-        <v>44043</v>
+        <v>44535</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -9961,7 +9961,7 @@
         <v>10</v>
       </c>
       <c r="F231" s="1">
-        <v>45168</v>
+        <v>43866</v>
       </c>
       <c r="G231">
         <v>1</v>
@@ -9987,7 +9987,7 @@
         <v>14</v>
       </c>
       <c r="F232" s="1">
-        <v>44965</v>
+        <v>44708</v>
       </c>
       <c r="G232">
         <v>1</v>
@@ -10013,7 +10013,7 @@
         <v>10</v>
       </c>
       <c r="F233" s="1">
-        <v>44279</v>
+        <v>44441</v>
       </c>
       <c r="G233">
         <v>1</v>
@@ -10039,7 +10039,7 @@
         <v>10</v>
       </c>
       <c r="F234" s="1">
-        <v>44016</v>
+        <v>44198</v>
       </c>
       <c r="G234">
         <v>1</v>
@@ -10065,7 +10065,7 @@
         <v>10</v>
       </c>
       <c r="F235" s="1">
-        <v>43538</v>
+        <v>43591</v>
       </c>
       <c r="G235">
         <v>1</v>
@@ -10091,7 +10091,7 @@
         <v>10</v>
       </c>
       <c r="F236" s="1">
-        <v>44999</v>
+        <v>44416</v>
       </c>
       <c r="G236">
         <v>1</v>
@@ -10117,7 +10117,7 @@
         <v>101</v>
       </c>
       <c r="F237" s="1">
-        <v>44478</v>
+        <v>44599</v>
       </c>
       <c r="G237">
         <v>59</v>
@@ -10143,7 +10143,7 @@
         <v>10</v>
       </c>
       <c r="F238" s="1">
-        <v>44169</v>
+        <v>44577</v>
       </c>
       <c r="G238">
         <v>1</v>
@@ -10169,7 +10169,7 @@
         <v>10</v>
       </c>
       <c r="F239" s="1">
-        <v>44257</v>
+        <v>45049</v>
       </c>
       <c r="G239">
         <v>1</v>
@@ -10195,7 +10195,7 @@
         <v>10</v>
       </c>
       <c r="F240" s="1">
-        <v>44569</v>
+        <v>45081</v>
       </c>
       <c r="G240">
         <v>1</v>
@@ -10221,7 +10221,7 @@
         <v>23</v>
       </c>
       <c r="F241" s="1">
-        <v>44136</v>
+        <v>45142</v>
       </c>
       <c r="G241">
         <v>1</v>
@@ -10247,7 +10247,7 @@
         <v>14</v>
       </c>
       <c r="F242" s="1">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="G242">
         <v>18</v>
@@ -10273,7 +10273,7 @@
         <v>14</v>
       </c>
       <c r="F243" s="1">
-        <v>43908</v>
+        <v>45043</v>
       </c>
       <c r="G243">
         <v>1</v>
@@ -10299,7 +10299,7 @@
         <v>10</v>
       </c>
       <c r="F244" s="1">
-        <v>43977</v>
+        <v>44489</v>
       </c>
       <c r="G244">
         <v>59</v>
@@ -10325,7 +10325,7 @@
         <v>10</v>
       </c>
       <c r="F245" s="1">
-        <v>43899</v>
+        <v>44293</v>
       </c>
       <c r="G245">
         <v>1</v>
@@ -10351,7 +10351,7 @@
         <v>14</v>
       </c>
       <c r="F246" s="1">
-        <v>43468</v>
+        <v>43508</v>
       </c>
       <c r="G246">
         <v>1</v>
@@ -10377,7 +10377,7 @@
         <v>10</v>
       </c>
       <c r="F247" s="1">
-        <v>44681</v>
+        <v>45087</v>
       </c>
       <c r="G247">
         <v>1</v>
@@ -10403,7 +10403,7 @@
         <v>14</v>
       </c>
       <c r="F248" s="1">
-        <v>44129</v>
+        <v>43776</v>
       </c>
       <c r="G248">
         <v>1</v>
@@ -10429,7 +10429,7 @@
         <v>23</v>
       </c>
       <c r="F249" s="1">
-        <v>43586</v>
+        <v>44624</v>
       </c>
       <c r="G249">
         <v>1</v>
@@ -10455,7 +10455,7 @@
         <v>10</v>
       </c>
       <c r="F250" s="1">
-        <v>45025</v>
+        <v>44258</v>
       </c>
       <c r="G250">
         <v>1</v>
@@ -10481,7 +10481,7 @@
         <v>23</v>
       </c>
       <c r="F251" s="1">
-        <v>44764</v>
+        <v>43949</v>
       </c>
       <c r="G251">
         <v>1</v>
@@ -10507,7 +10507,7 @@
         <v>14</v>
       </c>
       <c r="F252" s="1">
-        <v>45202</v>
+        <v>44946</v>
       </c>
       <c r="G252">
         <v>59</v>
@@ -10533,7 +10533,7 @@
         <v>10</v>
       </c>
       <c r="F253" s="1">
-        <v>44973</v>
+        <v>43948</v>
       </c>
       <c r="G253">
         <v>64</v>
@@ -10559,7 +10559,7 @@
         <v>14</v>
       </c>
       <c r="F254" s="1">
-        <v>43557</v>
+        <v>44954</v>
       </c>
       <c r="G254">
         <v>59</v>
@@ -10585,7 +10585,7 @@
         <v>10</v>
       </c>
       <c r="F255" s="1">
-        <v>43770</v>
+        <v>44656</v>
       </c>
       <c r="G255">
         <v>64</v>
@@ -10611,7 +10611,7 @@
         <v>10</v>
       </c>
       <c r="F256" s="1">
-        <v>45193</v>
+        <v>43510</v>
       </c>
       <c r="G256">
         <v>59</v>
@@ -10637,7 +10637,7 @@
         <v>14</v>
       </c>
       <c r="F257" s="1">
-        <v>44581</v>
+        <v>44683</v>
       </c>
       <c r="G257">
         <v>1</v>
@@ -10663,7 +10663,7 @@
         <v>10</v>
       </c>
       <c r="F258" s="1">
-        <v>44394</v>
+        <v>44431</v>
       </c>
       <c r="G258">
         <v>1</v>
@@ -10689,7 +10689,7 @@
         <v>14</v>
       </c>
       <c r="F259" s="1">
-        <v>44512</v>
+        <v>43737</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -10715,7 +10715,7 @@
         <v>101</v>
       </c>
       <c r="F260" s="1">
-        <v>44417</v>
+        <v>44108</v>
       </c>
       <c r="G260">
         <v>59</v>
@@ -10741,7 +10741,7 @@
         <v>14</v>
       </c>
       <c r="F261" s="1">
-        <v>44900</v>
+        <v>43613</v>
       </c>
       <c r="G261">
         <v>1</v>
@@ -10767,7 +10767,7 @@
         <v>14</v>
       </c>
       <c r="F262" s="1">
-        <v>43750</v>
+        <v>45071</v>
       </c>
       <c r="G262">
         <v>1</v>
@@ -10793,7 +10793,7 @@
         <v>14</v>
       </c>
       <c r="F263" s="1">
-        <v>43487</v>
+        <v>44629</v>
       </c>
       <c r="G263">
         <v>1</v>
@@ -10819,7 +10819,7 @@
         <v>101</v>
       </c>
       <c r="F264" s="1">
-        <v>44488</v>
+        <v>44878</v>
       </c>
       <c r="G264">
         <v>1</v>
@@ -10845,7 +10845,7 @@
         <v>10</v>
       </c>
       <c r="F265" s="1">
-        <v>44102</v>
+        <v>44979</v>
       </c>
       <c r="G265">
         <v>64</v>
@@ -10871,7 +10871,7 @@
         <v>10</v>
       </c>
       <c r="F266" s="1">
-        <v>45004</v>
+        <v>43512</v>
       </c>
       <c r="G266">
         <v>1</v>
@@ -10897,7 +10897,7 @@
         <v>23</v>
       </c>
       <c r="F267" s="1">
-        <v>43779</v>
+        <v>44759</v>
       </c>
       <c r="G267">
         <v>1</v>
@@ -10923,7 +10923,7 @@
         <v>14</v>
       </c>
       <c r="F268" s="1">
-        <v>44650</v>
+        <v>45069</v>
       </c>
       <c r="G268">
         <v>1</v>
@@ -10949,7 +10949,7 @@
         <v>23</v>
       </c>
       <c r="F269" s="1">
-        <v>44135</v>
+        <v>44690</v>
       </c>
       <c r="G269">
         <v>1</v>
@@ -10975,7 +10975,7 @@
         <v>10</v>
       </c>
       <c r="F270" s="1">
-        <v>43988</v>
+        <v>44546</v>
       </c>
       <c r="G270">
         <v>1</v>
@@ -11001,7 +11001,7 @@
         <v>14</v>
       </c>
       <c r="F271" s="1">
-        <v>44800</v>
+        <v>44902</v>
       </c>
       <c r="G271">
         <v>1</v>
@@ -11027,7 +11027,7 @@
         <v>23</v>
       </c>
       <c r="F272" s="1">
-        <v>44981</v>
+        <v>45177</v>
       </c>
       <c r="G272">
         <v>1</v>
@@ -11053,7 +11053,7 @@
         <v>14</v>
       </c>
       <c r="F273" s="1">
-        <v>44787</v>
+        <v>44592</v>
       </c>
       <c r="G273">
         <v>1</v>
@@ -11079,7 +11079,7 @@
         <v>10</v>
       </c>
       <c r="F274" s="1">
-        <v>44032</v>
+        <v>45082</v>
       </c>
       <c r="G274">
         <v>1</v>
@@ -11105,7 +11105,7 @@
         <v>14</v>
       </c>
       <c r="F275" s="1">
-        <v>44298</v>
+        <v>43466</v>
       </c>
       <c r="G275">
         <v>1</v>
@@ -11131,7 +11131,7 @@
         <v>14</v>
       </c>
       <c r="F276" s="1">
-        <v>43837</v>
+        <v>43575</v>
       </c>
       <c r="G276">
         <v>1</v>
@@ -11157,7 +11157,7 @@
         <v>10</v>
       </c>
       <c r="F277" s="1">
-        <v>43588</v>
+        <v>43864</v>
       </c>
       <c r="G277">
         <v>1</v>
@@ -11183,7 +11183,7 @@
         <v>10</v>
       </c>
       <c r="F278" s="1">
-        <v>44106</v>
+        <v>44336</v>
       </c>
       <c r="G278">
         <v>1</v>
@@ -11209,7 +11209,7 @@
         <v>10</v>
       </c>
       <c r="F279" s="1">
-        <v>44568</v>
+        <v>44859</v>
       </c>
       <c r="G279">
         <v>1</v>
@@ -11235,7 +11235,7 @@
         <v>10</v>
       </c>
       <c r="F280" s="1">
-        <v>43709</v>
+        <v>43635</v>
       </c>
       <c r="G280">
         <v>1</v>
@@ -11261,7 +11261,7 @@
         <v>10</v>
       </c>
       <c r="F281" s="1">
-        <v>43659</v>
+        <v>44957</v>
       </c>
       <c r="G281">
         <v>1</v>
@@ -11287,7 +11287,7 @@
         <v>10</v>
       </c>
       <c r="F282" s="1">
-        <v>44867</v>
+        <v>44567</v>
       </c>
       <c r="G282">
         <v>1</v>
@@ -11313,7 +11313,7 @@
         <v>14</v>
       </c>
       <c r="F283" s="1">
-        <v>43991</v>
+        <v>43662</v>
       </c>
       <c r="G283">
         <v>64</v>
@@ -11339,7 +11339,7 @@
         <v>14</v>
       </c>
       <c r="F284" s="1">
-        <v>45014</v>
+        <v>44352</v>
       </c>
       <c r="G284">
         <v>1</v>
@@ -11365,7 +11365,7 @@
         <v>14</v>
       </c>
       <c r="F285" s="1">
-        <v>43967</v>
+        <v>44973</v>
       </c>
       <c r="G285">
         <v>1</v>
@@ -11391,7 +11391,7 @@
         <v>10</v>
       </c>
       <c r="F286" s="1">
-        <v>43550</v>
+        <v>44523</v>
       </c>
       <c r="G286">
         <v>1</v>
@@ -11417,7 +11417,7 @@
         <v>14</v>
       </c>
       <c r="F287" s="1">
-        <v>44777</v>
+        <v>44569</v>
       </c>
       <c r="G287">
         <v>1</v>
@@ -11443,7 +11443,7 @@
         <v>10</v>
       </c>
       <c r="F288" s="1">
-        <v>44786</v>
+        <v>44269</v>
       </c>
       <c r="G288">
         <v>1</v>
@@ -11469,7 +11469,7 @@
         <v>10</v>
       </c>
       <c r="F289" s="1">
-        <v>44732</v>
+        <v>43749</v>
       </c>
       <c r="G289">
         <v>64</v>
@@ -11495,7 +11495,7 @@
         <v>10</v>
       </c>
       <c r="F290" s="1">
-        <v>44820</v>
+        <v>45094</v>
       </c>
       <c r="G290">
         <v>1</v>
@@ -11521,7 +11521,7 @@
         <v>101</v>
       </c>
       <c r="F291" s="1">
-        <v>44421</v>
+        <v>44406</v>
       </c>
       <c r="G291">
         <v>1</v>
@@ -11547,7 +11547,7 @@
         <v>14</v>
       </c>
       <c r="F292" s="1">
-        <v>44680</v>
+        <v>44656</v>
       </c>
       <c r="G292">
         <v>1</v>
@@ -11573,7 +11573,7 @@
         <v>14</v>
       </c>
       <c r="F293" s="1">
-        <v>44338</v>
+        <v>44988</v>
       </c>
       <c r="G293">
         <v>1</v>
@@ -11599,7 +11599,7 @@
         <v>14</v>
       </c>
       <c r="F294" s="1">
-        <v>44960</v>
+        <v>43940</v>
       </c>
       <c r="G294">
         <v>59</v>
@@ -11625,7 +11625,7 @@
         <v>10</v>
       </c>
       <c r="F295" s="1">
-        <v>44269</v>
+        <v>44941</v>
       </c>
       <c r="G295">
         <v>1</v>
@@ -11651,7 +11651,7 @@
         <v>10</v>
       </c>
       <c r="F296" s="1">
-        <v>44392</v>
+        <v>44448</v>
       </c>
       <c r="G296">
         <v>1</v>
@@ -11677,7 +11677,7 @@
         <v>14</v>
       </c>
       <c r="F297" s="1">
-        <v>44557</v>
+        <v>44284</v>
       </c>
       <c r="G297">
         <v>1</v>
@@ -11703,7 +11703,7 @@
         <v>14</v>
       </c>
       <c r="F298" s="1">
-        <v>44471</v>
+        <v>44881</v>
       </c>
       <c r="G298">
         <v>1</v>
@@ -11729,7 +11729,7 @@
         <v>14</v>
       </c>
       <c r="F299" s="1">
-        <v>44509</v>
+        <v>45127</v>
       </c>
       <c r="G299">
         <v>59</v>
@@ -11755,7 +11755,7 @@
         <v>14</v>
       </c>
       <c r="F300" s="1">
-        <v>45114</v>
+        <v>44009</v>
       </c>
       <c r="G300">
         <v>1</v>
@@ -11781,7 +11781,7 @@
         <v>10</v>
       </c>
       <c r="F301" s="1">
-        <v>44082</v>
+        <v>44002</v>
       </c>
       <c r="G301">
         <v>1</v>
@@ -11807,7 +11807,7 @@
         <v>10</v>
       </c>
       <c r="F302" s="1">
-        <v>45006</v>
+        <v>44777</v>
       </c>
       <c r="G302">
         <v>46</v>
@@ -11833,7 +11833,7 @@
         <v>10</v>
       </c>
       <c r="F303" s="1">
-        <v>43693</v>
+        <v>44691</v>
       </c>
       <c r="G303">
         <v>1</v>
@@ -11859,7 +11859,7 @@
         <v>10</v>
       </c>
       <c r="F304" s="1">
-        <v>44423</v>
+        <v>43515</v>
       </c>
       <c r="G304">
         <v>1</v>
@@ -11885,7 +11885,7 @@
         <v>14</v>
       </c>
       <c r="F305" s="1">
-        <v>44956</v>
+        <v>44510</v>
       </c>
       <c r="G305">
         <v>1</v>
@@ -11911,7 +11911,7 @@
         <v>10</v>
       </c>
       <c r="F306" s="1">
-        <v>43486</v>
+        <v>44576</v>
       </c>
       <c r="G306">
         <v>1</v>
@@ -11937,7 +11937,7 @@
         <v>14</v>
       </c>
       <c r="F307" s="1">
-        <v>44209</v>
+        <v>44355</v>
       </c>
       <c r="G307">
         <v>1</v>
@@ -11963,7 +11963,7 @@
         <v>10</v>
       </c>
       <c r="F308" s="1">
-        <v>44013</v>
+        <v>44083</v>
       </c>
       <c r="G308">
         <v>1</v>
@@ -11989,7 +11989,7 @@
         <v>14</v>
       </c>
       <c r="F309" s="1">
-        <v>44861</v>
+        <v>44760</v>
       </c>
       <c r="G309">
         <v>59</v>
@@ -12015,7 +12015,7 @@
         <v>10</v>
       </c>
       <c r="F310" s="1">
-        <v>44614</v>
+        <v>44330</v>
       </c>
       <c r="G310">
         <v>1</v>
@@ -12041,7 +12041,7 @@
         <v>10</v>
       </c>
       <c r="F311" s="1">
-        <v>43552</v>
+        <v>44684</v>
       </c>
       <c r="G311">
         <v>1</v>
@@ -12067,7 +12067,7 @@
         <v>10</v>
       </c>
       <c r="F312" s="1">
-        <v>43706</v>
+        <v>44518</v>
       </c>
       <c r="G312">
         <v>1</v>
@@ -12093,7 +12093,7 @@
         <v>10</v>
       </c>
       <c r="F313" s="1">
-        <v>44757</v>
+        <v>44828</v>
       </c>
       <c r="G313">
         <v>1</v>
@@ -12119,7 +12119,7 @@
         <v>10</v>
       </c>
       <c r="F314" s="1">
-        <v>44358</v>
+        <v>45197</v>
       </c>
       <c r="G314">
         <v>1</v>
@@ -12145,7 +12145,7 @@
         <v>10</v>
       </c>
       <c r="F315" s="1">
-        <v>43575</v>
+        <v>44002</v>
       </c>
       <c r="G315">
         <v>1</v>
@@ -12171,7 +12171,7 @@
         <v>10</v>
       </c>
       <c r="F316" s="1">
-        <v>44150</v>
+        <v>43737</v>
       </c>
       <c r="G316">
         <v>1</v>
@@ -12197,7 +12197,7 @@
         <v>101</v>
       </c>
       <c r="F317" s="1">
-        <v>43594</v>
+        <v>44436</v>
       </c>
       <c r="G317">
         <v>1</v>
@@ -12223,7 +12223,7 @@
         <v>14</v>
       </c>
       <c r="F318" s="1">
-        <v>44967</v>
+        <v>44577</v>
       </c>
       <c r="G318">
         <v>64</v>
@@ -12249,7 +12249,7 @@
         <v>10</v>
       </c>
       <c r="F319" s="1">
-        <v>44212</v>
+        <v>44679</v>
       </c>
       <c r="G319">
         <v>1</v>
@@ -12275,7 +12275,7 @@
         <v>10</v>
       </c>
       <c r="F320" s="1">
-        <v>44380</v>
+        <v>44265</v>
       </c>
       <c r="G320">
         <v>1</v>
@@ -12301,7 +12301,7 @@
         <v>10</v>
       </c>
       <c r="F321" s="1">
-        <v>44076</v>
+        <v>43785</v>
       </c>
       <c r="G321">
         <v>1</v>
@@ -12327,7 +12327,7 @@
         <v>101</v>
       </c>
       <c r="F322" s="1">
-        <v>44181</v>
+        <v>44159</v>
       </c>
       <c r="G322">
         <v>64</v>
@@ -12353,7 +12353,7 @@
         <v>10</v>
       </c>
       <c r="F323" s="1">
-        <v>44018</v>
+        <v>44344</v>
       </c>
       <c r="G323">
         <v>64</v>
@@ -12379,7 +12379,7 @@
         <v>10</v>
       </c>
       <c r="F324" s="1">
-        <v>44057</v>
+        <v>44466</v>
       </c>
       <c r="G324">
         <v>1</v>
@@ -12405,7 +12405,7 @@
         <v>14</v>
       </c>
       <c r="F325" s="1">
-        <v>45050</v>
+        <v>44537</v>
       </c>
       <c r="G325">
         <v>1</v>
@@ -12431,7 +12431,7 @@
         <v>10</v>
       </c>
       <c r="F326" s="1">
-        <v>44931</v>
+        <v>43910</v>
       </c>
       <c r="G326">
         <v>1</v>
@@ -12457,7 +12457,7 @@
         <v>10</v>
       </c>
       <c r="F327" s="1">
-        <v>43929</v>
+        <v>44132</v>
       </c>
       <c r="G327">
         <v>1</v>
@@ -12483,7 +12483,7 @@
         <v>10</v>
       </c>
       <c r="F328" s="1">
-        <v>45033</v>
+        <v>44747</v>
       </c>
       <c r="G328">
         <v>1</v>
@@ -12509,7 +12509,7 @@
         <v>14</v>
       </c>
       <c r="F329" s="1">
-        <v>43871</v>
+        <v>44682</v>
       </c>
       <c r="G329">
         <v>1</v>
@@ -12535,7 +12535,7 @@
         <v>10</v>
       </c>
       <c r="F330" s="1">
-        <v>44989</v>
+        <v>44736</v>
       </c>
       <c r="G330">
         <v>59</v>
@@ -12561,7 +12561,7 @@
         <v>10</v>
       </c>
       <c r="F331" s="1">
-        <v>43867</v>
+        <v>44545</v>
       </c>
       <c r="G331">
         <v>1</v>
@@ -12587,7 +12587,7 @@
         <v>14</v>
       </c>
       <c r="F332" s="1">
-        <v>45093</v>
+        <v>44037</v>
       </c>
       <c r="G332">
         <v>1</v>
@@ -12613,7 +12613,7 @@
         <v>14</v>
       </c>
       <c r="F333" s="1">
-        <v>43612</v>
+        <v>43754</v>
       </c>
       <c r="G333">
         <v>1</v>
@@ -12639,7 +12639,7 @@
         <v>10</v>
       </c>
       <c r="F334" s="1">
-        <v>43498</v>
+        <v>44173</v>
       </c>
       <c r="G334">
         <v>1</v>
@@ -12665,7 +12665,7 @@
         <v>10</v>
       </c>
       <c r="F335" s="1">
-        <v>44590</v>
+        <v>44166</v>
       </c>
       <c r="G335">
         <v>1</v>
@@ -12691,7 +12691,7 @@
         <v>14</v>
       </c>
       <c r="F336" s="1">
-        <v>44025</v>
+        <v>43650</v>
       </c>
       <c r="G336">
         <v>1</v>
@@ -12717,7 +12717,7 @@
         <v>10</v>
       </c>
       <c r="F337" s="1">
-        <v>44624</v>
+        <v>44951</v>
       </c>
       <c r="G337">
         <v>1</v>
@@ -12743,7 +12743,7 @@
         <v>14</v>
       </c>
       <c r="F338" s="1">
-        <v>44156</v>
+        <v>44224</v>
       </c>
       <c r="G338">
         <v>1</v>
@@ -12769,7 +12769,7 @@
         <v>10</v>
       </c>
       <c r="F339" s="1">
-        <v>43885</v>
+        <v>44813</v>
       </c>
       <c r="G339">
         <v>64</v>
@@ -12795,7 +12795,7 @@
         <v>10</v>
       </c>
       <c r="F340" s="1">
-        <v>43692</v>
+        <v>44324</v>
       </c>
       <c r="G340">
         <v>18</v>
@@ -12821,7 +12821,7 @@
         <v>14</v>
       </c>
       <c r="F341" s="1">
-        <v>44823</v>
+        <v>44713</v>
       </c>
       <c r="G341">
         <v>1</v>
@@ -12847,7 +12847,7 @@
         <v>10</v>
       </c>
       <c r="F342" s="1">
-        <v>45013</v>
+        <v>45173</v>
       </c>
       <c r="G342">
         <v>18</v>
@@ -12873,7 +12873,7 @@
         <v>10</v>
       </c>
       <c r="F343" s="1">
-        <v>44146</v>
+        <v>43559</v>
       </c>
       <c r="G343">
         <v>59</v>
@@ -12899,7 +12899,7 @@
         <v>10</v>
       </c>
       <c r="F344" s="1">
-        <v>43745</v>
+        <v>43768</v>
       </c>
       <c r="G344">
         <v>1</v>
@@ -12925,7 +12925,7 @@
         <v>10</v>
       </c>
       <c r="F345" s="1">
-        <v>43909</v>
+        <v>43996</v>
       </c>
       <c r="G345">
         <v>1</v>
@@ -12951,7 +12951,7 @@
         <v>10</v>
       </c>
       <c r="F346" s="1">
-        <v>43584</v>
+        <v>44286</v>
       </c>
       <c r="G346">
         <v>64</v>
@@ -12977,7 +12977,7 @@
         <v>10</v>
       </c>
       <c r="F347" s="1">
-        <v>43776</v>
+        <v>44069</v>
       </c>
       <c r="G347">
         <v>59</v>
@@ -13003,7 +13003,7 @@
         <v>10</v>
       </c>
       <c r="F348" s="1">
-        <v>44814</v>
+        <v>44289</v>
       </c>
       <c r="G348">
         <v>64</v>
@@ -13029,7 +13029,7 @@
         <v>10</v>
       </c>
       <c r="F349" s="1">
-        <v>44812</v>
+        <v>44535</v>
       </c>
       <c r="G349">
         <v>59</v>
@@ -13055,7 +13055,7 @@
         <v>10</v>
       </c>
       <c r="F350" s="1">
-        <v>44987</v>
+        <v>44028</v>
       </c>
       <c r="G350">
         <v>1</v>
@@ -13081,7 +13081,7 @@
         <v>14</v>
       </c>
       <c r="F351" s="1">
-        <v>43653</v>
+        <v>44886</v>
       </c>
       <c r="G351">
         <v>1</v>
@@ -13107,7 +13107,7 @@
         <v>10</v>
       </c>
       <c r="F352" s="1">
-        <v>43963</v>
+        <v>44889</v>
       </c>
       <c r="G352">
         <v>1</v>
@@ -13133,7 +13133,7 @@
         <v>101</v>
       </c>
       <c r="F353" s="1">
-        <v>44432</v>
+        <v>45185</v>
       </c>
       <c r="G353">
         <v>1</v>
@@ -13159,7 +13159,7 @@
         <v>14</v>
       </c>
       <c r="F354" s="1">
-        <v>44369</v>
+        <v>44036</v>
       </c>
       <c r="G354">
         <v>1</v>
@@ -13185,7 +13185,7 @@
         <v>10</v>
       </c>
       <c r="F355" s="1">
-        <v>45083</v>
+        <v>43623</v>
       </c>
       <c r="G355">
         <v>1</v>
@@ -13211,7 +13211,7 @@
         <v>14</v>
       </c>
       <c r="F356" s="1">
-        <v>45156</v>
+        <v>43531</v>
       </c>
       <c r="G356">
         <v>1</v>
@@ -13237,7 +13237,7 @@
         <v>10</v>
       </c>
       <c r="F357" s="1">
-        <v>45179</v>
+        <v>43963</v>
       </c>
       <c r="G357">
         <v>1</v>
@@ -13263,7 +13263,7 @@
         <v>14</v>
       </c>
       <c r="F358" s="1">
-        <v>43872</v>
+        <v>43764</v>
       </c>
       <c r="G358">
         <v>1</v>
@@ -13289,7 +13289,7 @@
         <v>10</v>
       </c>
       <c r="F359" s="1">
-        <v>43993</v>
+        <v>44466</v>
       </c>
       <c r="G359">
         <v>1</v>
@@ -13315,7 +13315,7 @@
         <v>14</v>
       </c>
       <c r="F360" s="1">
-        <v>44639</v>
+        <v>45121</v>
       </c>
       <c r="G360">
         <v>1</v>
@@ -13341,7 +13341,7 @@
         <v>14</v>
       </c>
       <c r="F361" s="1">
-        <v>45115</v>
+        <v>44089</v>
       </c>
       <c r="G361">
         <v>1</v>
@@ -13367,7 +13367,7 @@
         <v>14</v>
       </c>
       <c r="F362" s="1">
-        <v>44556</v>
+        <v>44692</v>
       </c>
       <c r="G362">
         <v>1</v>
@@ -13393,7 +13393,7 @@
         <v>14</v>
       </c>
       <c r="F363" s="1">
-        <v>44433</v>
+        <v>44895</v>
       </c>
       <c r="G363">
         <v>59</v>
@@ -13419,7 +13419,7 @@
         <v>10</v>
       </c>
       <c r="F364" s="1">
-        <v>44808</v>
+        <v>44332</v>
       </c>
       <c r="G364">
         <v>46</v>
@@ -13445,7 +13445,7 @@
         <v>10</v>
       </c>
       <c r="F365" s="1">
-        <v>43794</v>
+        <v>43848</v>
       </c>
       <c r="G365">
         <v>1</v>
@@ -13471,7 +13471,7 @@
         <v>10</v>
       </c>
       <c r="F366" s="1">
-        <v>45180</v>
+        <v>44215</v>
       </c>
       <c r="G366">
         <v>1</v>
@@ -13497,7 +13497,7 @@
         <v>101</v>
       </c>
       <c r="F367" s="1">
-        <v>44143</v>
+        <v>45058</v>
       </c>
       <c r="G367">
         <v>1</v>
@@ -13523,7 +13523,7 @@
         <v>10</v>
       </c>
       <c r="F368" s="1">
-        <v>43605</v>
+        <v>44257</v>
       </c>
       <c r="G368">
         <v>1</v>
@@ -13549,7 +13549,7 @@
         <v>10</v>
       </c>
       <c r="F369" s="1">
-        <v>45011</v>
+        <v>44232</v>
       </c>
       <c r="G369">
         <v>1</v>
@@ -13575,7 +13575,7 @@
         <v>10</v>
       </c>
       <c r="F370" s="1">
-        <v>44272</v>
+        <v>44079</v>
       </c>
       <c r="G370">
         <v>1</v>
@@ -13601,7 +13601,7 @@
         <v>10</v>
       </c>
       <c r="F371" s="1">
-        <v>44655</v>
+        <v>45064</v>
       </c>
       <c r="G371">
         <v>1</v>
@@ -13627,7 +13627,7 @@
         <v>10</v>
       </c>
       <c r="F372" s="1">
-        <v>43711</v>
+        <v>43764</v>
       </c>
       <c r="G372">
         <v>1</v>
@@ -13653,7 +13653,7 @@
         <v>14</v>
       </c>
       <c r="F373" s="1">
-        <v>44794</v>
+        <v>44655</v>
       </c>
       <c r="G373">
         <v>1</v>
@@ -13679,7 +13679,7 @@
         <v>10</v>
       </c>
       <c r="F374" s="1">
-        <v>44046</v>
+        <v>44709</v>
       </c>
       <c r="G374">
         <v>59</v>
@@ -13705,7 +13705,7 @@
         <v>14</v>
       </c>
       <c r="F375" s="1">
-        <v>44543</v>
+        <v>44376</v>
       </c>
       <c r="G375">
         <v>18</v>
@@ -13731,7 +13731,7 @@
         <v>10</v>
       </c>
       <c r="F376" s="1">
-        <v>44392</v>
+        <v>44331</v>
       </c>
       <c r="G376">
         <v>1</v>
@@ -13757,7 +13757,7 @@
         <v>10</v>
       </c>
       <c r="F377" s="1">
-        <v>45004</v>
+        <v>45027</v>
       </c>
       <c r="G377">
         <v>70</v>
@@ -13783,7 +13783,7 @@
         <v>14</v>
       </c>
       <c r="F378" s="1">
-        <v>43919</v>
+        <v>44377</v>
       </c>
       <c r="G378">
         <v>1</v>
@@ -13809,7 +13809,7 @@
         <v>23</v>
       </c>
       <c r="F379" s="1">
-        <v>44837</v>
+        <v>43776</v>
       </c>
       <c r="G379">
         <v>1</v>
@@ -13835,7 +13835,7 @@
         <v>14</v>
       </c>
       <c r="F380" s="1">
-        <v>44860</v>
+        <v>43866</v>
       </c>
       <c r="G380">
         <v>1</v>
@@ -13861,7 +13861,7 @@
         <v>10</v>
       </c>
       <c r="F381" s="1">
-        <v>43474</v>
+        <v>43481</v>
       </c>
       <c r="G381">
         <v>64</v>
@@ -13887,7 +13887,7 @@
         <v>10</v>
       </c>
       <c r="F382" s="1">
-        <v>44354</v>
+        <v>44610</v>
       </c>
       <c r="G382">
         <v>70</v>
@@ -13913,7 +13913,7 @@
         <v>10</v>
       </c>
       <c r="F383" s="1">
-        <v>44962</v>
+        <v>43477</v>
       </c>
       <c r="G383">
         <v>1</v>
@@ -13939,7 +13939,7 @@
         <v>14</v>
       </c>
       <c r="F384" s="1">
-        <v>44223</v>
+        <v>44591</v>
       </c>
       <c r="G384">
         <v>59</v>
@@ -13965,7 +13965,7 @@
         <v>10</v>
       </c>
       <c r="F385" s="1">
-        <v>44086</v>
+        <v>43859</v>
       </c>
       <c r="G385">
         <v>1</v>
@@ -13991,7 +13991,7 @@
         <v>10</v>
       </c>
       <c r="F386" s="1">
-        <v>44821</v>
+        <v>43593</v>
       </c>
       <c r="G386">
         <v>1</v>
@@ -14017,7 +14017,7 @@
         <v>14</v>
       </c>
       <c r="F387" s="1">
-        <v>44893</v>
+        <v>45115</v>
       </c>
       <c r="G387">
         <v>1</v>
@@ -14043,7 +14043,7 @@
         <v>14</v>
       </c>
       <c r="F388" s="1">
-        <v>43699</v>
+        <v>44536</v>
       </c>
       <c r="G388">
         <v>1</v>
@@ -14069,7 +14069,7 @@
         <v>10</v>
       </c>
       <c r="F389" s="1">
-        <v>44365</v>
+        <v>43737</v>
       </c>
       <c r="G389">
         <v>1</v>
@@ -14095,7 +14095,7 @@
         <v>10</v>
       </c>
       <c r="F390" s="1">
-        <v>44997</v>
+        <v>45209</v>
       </c>
       <c r="G390">
         <v>1</v>
@@ -14121,7 +14121,7 @@
         <v>10</v>
       </c>
       <c r="F391" s="1">
-        <v>44038</v>
+        <v>43674</v>
       </c>
       <c r="G391">
         <v>1</v>
@@ -14147,7 +14147,7 @@
         <v>10</v>
       </c>
       <c r="F392" s="1">
-        <v>43947</v>
+        <v>44849</v>
       </c>
       <c r="G392">
         <v>1</v>
@@ -14173,7 +14173,7 @@
         <v>10</v>
       </c>
       <c r="F393" s="1">
-        <v>43796</v>
+        <v>44709</v>
       </c>
       <c r="G393">
         <v>1</v>
@@ -14199,7 +14199,7 @@
         <v>101</v>
       </c>
       <c r="F394" s="1">
-        <v>44822</v>
+        <v>43635</v>
       </c>
       <c r="G394">
         <v>1</v>
@@ -14225,7 +14225,7 @@
         <v>14</v>
       </c>
       <c r="F395" s="1">
-        <v>43620</v>
+        <v>43705</v>
       </c>
       <c r="G395">
         <v>1</v>
@@ -14251,7 +14251,7 @@
         <v>10</v>
       </c>
       <c r="F396" s="1">
-        <v>43470</v>
+        <v>44937</v>
       </c>
       <c r="G396">
         <v>64</v>
@@ -14277,7 +14277,7 @@
         <v>10</v>
       </c>
       <c r="F397" s="1">
-        <v>44885</v>
+        <v>45042</v>
       </c>
       <c r="G397">
         <v>1</v>
@@ -14303,7 +14303,7 @@
         <v>10</v>
       </c>
       <c r="F398" s="1">
-        <v>44084</v>
+        <v>44156</v>
       </c>
       <c r="G398">
         <v>64</v>
@@ -14329,7 +14329,7 @@
         <v>101</v>
       </c>
       <c r="F399" s="1">
-        <v>43912</v>
+        <v>44249</v>
       </c>
       <c r="G399">
         <v>1</v>
@@ -14355,7 +14355,7 @@
         <v>10</v>
       </c>
       <c r="F400" s="1">
-        <v>45204</v>
+        <v>44750</v>
       </c>
       <c r="G400">
         <v>59</v>
@@ -14381,7 +14381,7 @@
         <v>10</v>
       </c>
       <c r="F401" s="1">
-        <v>43660</v>
+        <v>44548</v>
       </c>
       <c r="G401">
         <v>1</v>
@@ -14407,7 +14407,7 @@
         <v>10</v>
       </c>
       <c r="F402" s="1">
-        <v>44113</v>
+        <v>43962</v>
       </c>
       <c r="G402">
         <v>1</v>
@@ -14433,7 +14433,7 @@
         <v>10</v>
       </c>
       <c r="F403" s="1">
-        <v>44345</v>
+        <v>43734</v>
       </c>
       <c r="G403">
         <v>64</v>
@@ -14459,7 +14459,7 @@
         <v>10</v>
       </c>
       <c r="F404" s="1">
-        <v>44853</v>
+        <v>44402</v>
       </c>
       <c r="G404">
         <v>1</v>
@@ -14485,7 +14485,7 @@
         <v>10</v>
       </c>
       <c r="F405" s="1">
-        <v>44435</v>
+        <v>44524</v>
       </c>
       <c r="G405">
         <v>1</v>
@@ -14511,7 +14511,7 @@
         <v>14</v>
       </c>
       <c r="F406" s="1">
-        <v>43649</v>
+        <v>43485</v>
       </c>
       <c r="G406">
         <v>1</v>
@@ -14537,7 +14537,7 @@
         <v>10</v>
       </c>
       <c r="F407" s="1">
-        <v>43726</v>
+        <v>44322</v>
       </c>
       <c r="G407">
         <v>1</v>
@@ -14563,7 +14563,7 @@
         <v>10</v>
       </c>
       <c r="F408" s="1">
-        <v>44544</v>
+        <v>44955</v>
       </c>
       <c r="G408">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         <v>10</v>
       </c>
       <c r="F409" s="1">
-        <v>45021</v>
+        <v>43690</v>
       </c>
       <c r="G409">
         <v>1</v>
@@ -14615,7 +14615,7 @@
         <v>14</v>
       </c>
       <c r="F410" s="1">
-        <v>44572</v>
+        <v>43754</v>
       </c>
       <c r="G410">
         <v>1</v>
@@ -14641,7 +14641,7 @@
         <v>10</v>
       </c>
       <c r="F411" s="1">
-        <v>44187</v>
+        <v>45001</v>
       </c>
       <c r="G411">
         <v>1</v>
@@ -14667,7 +14667,7 @@
         <v>10</v>
       </c>
       <c r="F412" s="1">
-        <v>44679</v>
+        <v>45192</v>
       </c>
       <c r="G412">
         <v>1</v>
@@ -14693,7 +14693,7 @@
         <v>10</v>
       </c>
       <c r="F413" s="1">
-        <v>44971</v>
+        <v>44554</v>
       </c>
       <c r="G413">
         <v>59</v>
@@ -14719,7 +14719,7 @@
         <v>10</v>
       </c>
       <c r="F414" s="1">
-        <v>43468</v>
+        <v>44978</v>
       </c>
       <c r="G414">
         <v>64</v>
@@ -14745,7 +14745,7 @@
         <v>101</v>
       </c>
       <c r="F415" s="1">
-        <v>45167</v>
+        <v>43653</v>
       </c>
       <c r="G415">
         <v>1</v>
@@ -14771,7 +14771,7 @@
         <v>10</v>
       </c>
       <c r="F416" s="1">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="G416">
         <v>64</v>
@@ -14797,7 +14797,7 @@
         <v>10</v>
       </c>
       <c r="F417" s="1">
-        <v>43682</v>
+        <v>44554</v>
       </c>
       <c r="G417">
         <v>1</v>
@@ -14823,7 +14823,7 @@
         <v>10</v>
       </c>
       <c r="F418" s="1">
-        <v>43797</v>
+        <v>44075</v>
       </c>
       <c r="G418">
         <v>1</v>
@@ -14849,7 +14849,7 @@
         <v>14</v>
       </c>
       <c r="F419" s="1">
-        <v>45176</v>
+        <v>43973</v>
       </c>
       <c r="G419">
         <v>1</v>
@@ -14875,7 +14875,7 @@
         <v>10</v>
       </c>
       <c r="F420" s="1">
-        <v>43926</v>
+        <v>44524</v>
       </c>
       <c r="G420">
         <v>59</v>
@@ -14901,7 +14901,7 @@
         <v>14</v>
       </c>
       <c r="F421" s="1">
-        <v>43598</v>
+        <v>45089</v>
       </c>
       <c r="G421">
         <v>1</v>
@@ -14953,7 +14953,7 @@
         <v>10</v>
       </c>
       <c r="F423" s="1">
-        <v>44361</v>
+        <v>43956</v>
       </c>
       <c r="G423">
         <v>1</v>
@@ -14979,7 +14979,7 @@
         <v>101</v>
       </c>
       <c r="F424" s="1">
-        <v>43523</v>
+        <v>44942</v>
       </c>
       <c r="G424">
         <v>1</v>
@@ -15005,7 +15005,7 @@
         <v>10</v>
       </c>
       <c r="F425" s="1">
-        <v>44741</v>
+        <v>43624</v>
       </c>
       <c r="G425">
         <v>64</v>
@@ -15031,7 +15031,7 @@
         <v>10</v>
       </c>
       <c r="F426" s="1">
-        <v>45170</v>
+        <v>43868</v>
       </c>
       <c r="G426">
         <v>1</v>
@@ -15057,7 +15057,7 @@
         <v>101</v>
       </c>
       <c r="F427" s="1">
-        <v>44169</v>
+        <v>43490</v>
       </c>
       <c r="G427">
         <v>1</v>
@@ -15083,7 +15083,7 @@
         <v>14</v>
       </c>
       <c r="F428" s="1">
-        <v>43804</v>
+        <v>44059</v>
       </c>
       <c r="G428">
         <v>1</v>
@@ -15109,7 +15109,7 @@
         <v>23</v>
       </c>
       <c r="F429" s="1">
-        <v>44683</v>
+        <v>44955</v>
       </c>
       <c r="G429">
         <v>1</v>
@@ -15135,7 +15135,7 @@
         <v>10</v>
       </c>
       <c r="F430" s="1">
-        <v>44422</v>
+        <v>43747</v>
       </c>
       <c r="G430">
         <v>18</v>
@@ -15161,7 +15161,7 @@
         <v>14</v>
       </c>
       <c r="F431" s="1">
-        <v>43977</v>
+        <v>44239</v>
       </c>
       <c r="G431">
         <v>1</v>
@@ -15187,7 +15187,7 @@
         <v>10</v>
       </c>
       <c r="F432" s="1">
-        <v>45179</v>
+        <v>45119</v>
       </c>
       <c r="G432">
         <v>1</v>
@@ -15213,7 +15213,7 @@
         <v>10</v>
       </c>
       <c r="F433" s="1">
-        <v>44468</v>
+        <v>45084</v>
       </c>
       <c r="G433">
         <v>18</v>
@@ -15239,7 +15239,7 @@
         <v>14</v>
       </c>
       <c r="F434" s="1">
-        <v>44177</v>
+        <v>43959</v>
       </c>
       <c r="G434">
         <v>1</v>
@@ -15265,7 +15265,7 @@
         <v>14</v>
       </c>
       <c r="F435" s="1">
-        <v>44375</v>
+        <v>43701</v>
       </c>
       <c r="G435">
         <v>64</v>
@@ -15291,7 +15291,7 @@
         <v>14</v>
       </c>
       <c r="F436" s="1">
-        <v>44615</v>
+        <v>43843</v>
       </c>
       <c r="G436">
         <v>1</v>
@@ -15317,7 +15317,7 @@
         <v>10</v>
       </c>
       <c r="F437" s="1">
-        <v>44083</v>
+        <v>43757</v>
       </c>
       <c r="G437">
         <v>1</v>
@@ -15343,7 +15343,7 @@
         <v>10</v>
       </c>
       <c r="F438" s="1">
-        <v>43501</v>
+        <v>45073</v>
       </c>
       <c r="G438">
         <v>1</v>
@@ -15369,7 +15369,7 @@
         <v>10</v>
       </c>
       <c r="F439" s="1">
-        <v>44289</v>
+        <v>45045</v>
       </c>
       <c r="G439">
         <v>1</v>
@@ -15395,7 +15395,7 @@
         <v>10</v>
       </c>
       <c r="F440" s="1">
-        <v>44298</v>
+        <v>44660</v>
       </c>
       <c r="G440">
         <v>64</v>
@@ -15421,7 +15421,7 @@
         <v>10</v>
       </c>
       <c r="F441" s="1">
-        <v>43742</v>
+        <v>43810</v>
       </c>
       <c r="G441">
         <v>1</v>
@@ -15447,7 +15447,7 @@
         <v>10</v>
       </c>
       <c r="F442" s="1">
-        <v>44567</v>
+        <v>44093</v>
       </c>
       <c r="G442">
         <v>1</v>
@@ -15473,7 +15473,7 @@
         <v>14</v>
       </c>
       <c r="F443" s="1">
-        <v>45039</v>
+        <v>44769</v>
       </c>
       <c r="G443">
         <v>1</v>
@@ -15499,7 +15499,7 @@
         <v>10</v>
       </c>
       <c r="F444" s="1">
-        <v>43944</v>
+        <v>44464</v>
       </c>
       <c r="G444">
         <v>1</v>
@@ -15525,7 +15525,7 @@
         <v>101</v>
       </c>
       <c r="F445" s="1">
-        <v>43468</v>
+        <v>44857</v>
       </c>
       <c r="G445">
         <v>59</v>
@@ -15551,7 +15551,7 @@
         <v>14</v>
       </c>
       <c r="F446" s="1">
-        <v>44211</v>
+        <v>43472</v>
       </c>
       <c r="G446">
         <v>1</v>
@@ -15577,7 +15577,7 @@
         <v>14</v>
       </c>
       <c r="F447" s="1">
-        <v>43700</v>
+        <v>44051</v>
       </c>
       <c r="G447">
         <v>1</v>
@@ -15603,7 +15603,7 @@
         <v>10</v>
       </c>
       <c r="F448" s="1">
-        <v>44463</v>
+        <v>45020</v>
       </c>
       <c r="G448">
         <v>1</v>
@@ -15629,7 +15629,7 @@
         <v>10</v>
       </c>
       <c r="F449" s="1">
-        <v>43578</v>
+        <v>45145</v>
       </c>
       <c r="G449">
         <v>1</v>
@@ -15655,7 +15655,7 @@
         <v>14</v>
       </c>
       <c r="F450" s="1">
-        <v>44975</v>
+        <v>44562</v>
       </c>
       <c r="G450">
         <v>1</v>
@@ -15681,7 +15681,7 @@
         <v>10</v>
       </c>
       <c r="F451" s="1">
-        <v>44135</v>
+        <v>45121</v>
       </c>
       <c r="G451">
         <v>64</v>
@@ -15707,7 +15707,7 @@
         <v>10</v>
       </c>
       <c r="F452" s="1">
-        <v>43751</v>
+        <v>44708</v>
       </c>
       <c r="G452">
         <v>1</v>
@@ -15733,7 +15733,7 @@
         <v>101</v>
       </c>
       <c r="F453" s="1">
-        <v>44018</v>
+        <v>45006</v>
       </c>
       <c r="G453">
         <v>64</v>
@@ -15759,7 +15759,7 @@
         <v>10</v>
       </c>
       <c r="F454" s="1">
-        <v>44961</v>
+        <v>43972</v>
       </c>
       <c r="G454">
         <v>64</v>
@@ -15785,7 +15785,7 @@
         <v>14</v>
       </c>
       <c r="F455" s="1">
-        <v>44745</v>
+        <v>43677</v>
       </c>
       <c r="G455">
         <v>1</v>
@@ -15811,7 +15811,7 @@
         <v>10</v>
       </c>
       <c r="F456" s="1">
-        <v>44584</v>
+        <v>44360</v>
       </c>
       <c r="G456">
         <v>1</v>
@@ -15837,7 +15837,7 @@
         <v>10</v>
       </c>
       <c r="F457" s="1">
-        <v>44739</v>
+        <v>44758</v>
       </c>
       <c r="G457">
         <v>1</v>
@@ -15863,7 +15863,7 @@
         <v>14</v>
       </c>
       <c r="F458" s="1">
-        <v>43934</v>
+        <v>43946</v>
       </c>
       <c r="G458">
         <v>29</v>
@@ -15889,7 +15889,7 @@
         <v>101</v>
       </c>
       <c r="F459" s="1">
-        <v>44173</v>
+        <v>44952</v>
       </c>
       <c r="G459">
         <v>1</v>
@@ -15915,7 +15915,7 @@
         <v>14</v>
       </c>
       <c r="F460" s="1">
-        <v>44663</v>
+        <v>44532</v>
       </c>
       <c r="G460">
         <v>1</v>
@@ -15941,7 +15941,7 @@
         <v>10</v>
       </c>
       <c r="F461" s="1">
-        <v>44447</v>
+        <v>44172</v>
       </c>
       <c r="G461">
         <v>1</v>
@@ -15967,7 +15967,7 @@
         <v>10</v>
       </c>
       <c r="F462" s="1">
-        <v>45150</v>
+        <v>44756</v>
       </c>
       <c r="G462">
         <v>1</v>
@@ -15993,7 +15993,7 @@
         <v>23</v>
       </c>
       <c r="F463" s="1">
-        <v>44513</v>
+        <v>44449</v>
       </c>
       <c r="G463">
         <v>1</v>
@@ -16019,7 +16019,7 @@
         <v>14</v>
       </c>
       <c r="F464" s="1">
-        <v>43611</v>
+        <v>43496</v>
       </c>
       <c r="G464">
         <v>1</v>
@@ -16045,7 +16045,7 @@
         <v>10</v>
       </c>
       <c r="F465" s="1">
-        <v>44144</v>
+        <v>45221</v>
       </c>
       <c r="G465">
         <v>59</v>
@@ -16071,7 +16071,7 @@
         <v>14</v>
       </c>
       <c r="F466" s="1">
-        <v>44452</v>
+        <v>44241</v>
       </c>
       <c r="G466">
         <v>1</v>
@@ -16097,7 +16097,7 @@
         <v>10</v>
       </c>
       <c r="F467" s="1">
-        <v>43743</v>
+        <v>43661</v>
       </c>
       <c r="G467">
         <v>1</v>
@@ -16123,7 +16123,7 @@
         <v>14</v>
       </c>
       <c r="F468" s="1">
-        <v>44396</v>
+        <v>44248</v>
       </c>
       <c r="G468">
         <v>1</v>
@@ -16149,7 +16149,7 @@
         <v>14</v>
       </c>
       <c r="F469" s="1">
-        <v>44123</v>
+        <v>44133</v>
       </c>
       <c r="G469">
         <v>1</v>
@@ -16175,7 +16175,7 @@
         <v>14</v>
       </c>
       <c r="F470" s="1">
-        <v>44472</v>
+        <v>44176</v>
       </c>
       <c r="G470">
         <v>59</v>
@@ -16201,7 +16201,7 @@
         <v>14</v>
       </c>
       <c r="F471" s="1">
-        <v>44149</v>
+        <v>44753</v>
       </c>
       <c r="G471">
         <v>1</v>
@@ -16227,7 +16227,7 @@
         <v>10</v>
       </c>
       <c r="F472" s="1">
-        <v>45164</v>
+        <v>44862</v>
       </c>
       <c r="G472">
         <v>1</v>
@@ -16253,7 +16253,7 @@
         <v>10</v>
       </c>
       <c r="F473" s="1">
-        <v>43575</v>
+        <v>44368</v>
       </c>
       <c r="G473">
         <v>1</v>
@@ -16279,7 +16279,7 @@
         <v>14</v>
       </c>
       <c r="F474" s="1">
-        <v>45169</v>
+        <v>44513</v>
       </c>
       <c r="G474">
         <v>1</v>
@@ -16305,7 +16305,7 @@
         <v>10</v>
       </c>
       <c r="F475" s="1">
-        <v>44294</v>
+        <v>43713</v>
       </c>
       <c r="G475">
         <v>64</v>
@@ -16331,7 +16331,7 @@
         <v>10</v>
       </c>
       <c r="F476" s="1">
-        <v>43692</v>
+        <v>44232</v>
       </c>
       <c r="G476">
         <v>1</v>
@@ -16357,7 +16357,7 @@
         <v>14</v>
       </c>
       <c r="F477" s="1">
-        <v>44849</v>
+        <v>44519</v>
       </c>
       <c r="G477">
         <v>1</v>
@@ -16383,7 +16383,7 @@
         <v>14</v>
       </c>
       <c r="F478" s="1">
-        <v>43490</v>
+        <v>43528</v>
       </c>
       <c r="G478">
         <v>64</v>
@@ -16409,7 +16409,7 @@
         <v>10</v>
       </c>
       <c r="F479" s="1">
-        <v>43791</v>
+        <v>44374</v>
       </c>
       <c r="G479">
         <v>1</v>
@@ -16435,7 +16435,7 @@
         <v>10</v>
       </c>
       <c r="F480" s="1">
-        <v>44368</v>
+        <v>43688</v>
       </c>
       <c r="G480">
         <v>64</v>
@@ -16461,7 +16461,7 @@
         <v>10</v>
       </c>
       <c r="F481" s="1">
-        <v>44150</v>
+        <v>44368</v>
       </c>
       <c r="G481">
         <v>1</v>
@@ -16487,7 +16487,7 @@
         <v>10</v>
       </c>
       <c r="F482" s="1">
-        <v>44025</v>
+        <v>45148</v>
       </c>
       <c r="G482">
         <v>1</v>
@@ -16513,7 +16513,7 @@
         <v>14</v>
       </c>
       <c r="F483" s="1">
-        <v>45117</v>
+        <v>44102</v>
       </c>
       <c r="G483">
         <v>1</v>
@@ -16539,7 +16539,7 @@
         <v>23</v>
       </c>
       <c r="F484" s="1">
-        <v>44198</v>
+        <v>43474</v>
       </c>
       <c r="G484">
         <v>1</v>
@@ -16565,7 +16565,7 @@
         <v>101</v>
       </c>
       <c r="F485" s="1">
-        <v>43795</v>
+        <v>45025</v>
       </c>
       <c r="G485">
         <v>64</v>
@@ -16591,7 +16591,7 @@
         <v>10</v>
       </c>
       <c r="F486" s="1">
-        <v>43653</v>
+        <v>43576</v>
       </c>
       <c r="G486">
         <v>1</v>
@@ -16617,7 +16617,7 @@
         <v>14</v>
       </c>
       <c r="F487" s="1">
-        <v>44761</v>
+        <v>45045</v>
       </c>
       <c r="G487">
         <v>1</v>
@@ -16643,7 +16643,7 @@
         <v>14</v>
       </c>
       <c r="F488" s="1">
-        <v>44509</v>
+        <v>43481</v>
       </c>
       <c r="G488">
         <v>1</v>
@@ -16669,7 +16669,7 @@
         <v>10</v>
       </c>
       <c r="F489" s="1">
-        <v>44457</v>
+        <v>43537</v>
       </c>
       <c r="G489">
         <v>1</v>
@@ -16695,7 +16695,7 @@
         <v>14</v>
       </c>
       <c r="F490" s="1">
-        <v>44358</v>
+        <v>43524</v>
       </c>
       <c r="G490">
         <v>64</v>
@@ -16721,7 +16721,7 @@
         <v>14</v>
       </c>
       <c r="F491" s="1">
-        <v>44783</v>
+        <v>43848</v>
       </c>
       <c r="G491">
         <v>1</v>
@@ -16747,7 +16747,7 @@
         <v>14</v>
       </c>
       <c r="F492" s="1">
-        <v>44975</v>
+        <v>43959</v>
       </c>
       <c r="G492">
         <v>1</v>
@@ -16773,7 +16773,7 @@
         <v>101</v>
       </c>
       <c r="F493" s="1">
-        <v>44686</v>
+        <v>43520</v>
       </c>
       <c r="G493">
         <v>1</v>
@@ -16799,7 +16799,7 @@
         <v>101</v>
       </c>
       <c r="F494" s="1">
-        <v>44543</v>
+        <v>45052</v>
       </c>
       <c r="G494">
         <v>1</v>
@@ -16825,7 +16825,7 @@
         <v>23</v>
       </c>
       <c r="F495" s="1">
-        <v>44896</v>
+        <v>43535</v>
       </c>
       <c r="G495">
         <v>1</v>
@@ -16851,7 +16851,7 @@
         <v>101</v>
       </c>
       <c r="F496" s="1">
-        <v>43766</v>
+        <v>44813</v>
       </c>
       <c r="G496">
         <v>1</v>
@@ -16877,7 +16877,7 @@
         <v>10</v>
       </c>
       <c r="F497" s="1">
-        <v>43822</v>
+        <v>43489</v>
       </c>
       <c r="G497">
         <v>1</v>
@@ -16903,7 +16903,7 @@
         <v>10</v>
       </c>
       <c r="F498" s="1">
-        <v>44537</v>
+        <v>43729</v>
       </c>
       <c r="G498">
         <v>1</v>
@@ -16929,7 +16929,7 @@
         <v>101</v>
       </c>
       <c r="F499" s="1">
-        <v>44428</v>
+        <v>44597</v>
       </c>
       <c r="G499">
         <v>1</v>
@@ -16955,7 +16955,7 @@
         <v>10</v>
       </c>
       <c r="F500" s="1">
-        <v>44122</v>
+        <v>45216</v>
       </c>
       <c r="G500">
         <v>1</v>
@@ -16981,7 +16981,7 @@
         <v>10</v>
       </c>
       <c r="F501" s="1">
-        <v>44744</v>
+        <v>45186</v>
       </c>
       <c r="G501">
         <v>1</v>
@@ -17007,7 +17007,7 @@
         <v>14</v>
       </c>
       <c r="F502" s="1">
-        <v>44476</v>
+        <v>44566</v>
       </c>
       <c r="G502">
         <v>1</v>
@@ -17033,7 +17033,7 @@
         <v>10</v>
       </c>
       <c r="F503" s="1">
-        <v>44724</v>
+        <v>44602</v>
       </c>
       <c r="G503">
         <v>1</v>
@@ -17059,7 +17059,7 @@
         <v>10</v>
       </c>
       <c r="F504" s="1">
-        <v>44074</v>
+        <v>44977</v>
       </c>
       <c r="G504">
         <v>64</v>
@@ -17085,7 +17085,7 @@
         <v>14</v>
       </c>
       <c r="F505" s="1">
-        <v>44634</v>
+        <v>45210</v>
       </c>
       <c r="G505">
         <v>1</v>
@@ -17111,7 +17111,7 @@
         <v>10</v>
       </c>
       <c r="F506" s="1">
-        <v>43821</v>
+        <v>43730</v>
       </c>
       <c r="G506">
         <v>1</v>
@@ -17137,7 +17137,7 @@
         <v>14</v>
       </c>
       <c r="F507" s="1">
-        <v>44220</v>
+        <v>43835</v>
       </c>
       <c r="G507">
         <v>1</v>
@@ -17163,7 +17163,7 @@
         <v>10</v>
       </c>
       <c r="F508" s="1">
-        <v>43772</v>
+        <v>44887</v>
       </c>
       <c r="G508">
         <v>1</v>
@@ -17189,7 +17189,7 @@
         <v>10</v>
       </c>
       <c r="F509" s="1">
-        <v>44595</v>
+        <v>45068</v>
       </c>
       <c r="G509">
         <v>1</v>
@@ -17215,7 +17215,7 @@
         <v>14</v>
       </c>
       <c r="F510" s="1">
-        <v>44562</v>
+        <v>43857</v>
       </c>
       <c r="G510">
         <v>64</v>
@@ -17241,7 +17241,7 @@
         <v>10</v>
       </c>
       <c r="F511" s="1">
-        <v>44072</v>
+        <v>45182</v>
       </c>
       <c r="G511">
         <v>1</v>
@@ -17267,7 +17267,7 @@
         <v>14</v>
       </c>
       <c r="F512" s="1">
-        <v>44557</v>
+        <v>44777</v>
       </c>
       <c r="G512">
         <v>1</v>
@@ -17293,7 +17293,7 @@
         <v>10</v>
       </c>
       <c r="F513" s="1">
-        <v>44199</v>
+        <v>43909</v>
       </c>
       <c r="G513">
         <v>1</v>
@@ -17319,7 +17319,7 @@
         <v>10</v>
       </c>
       <c r="F514" s="1">
-        <v>44416</v>
+        <v>43742</v>
       </c>
       <c r="G514">
         <v>1</v>
@@ -17345,7 +17345,7 @@
         <v>14</v>
       </c>
       <c r="F515" s="1">
-        <v>44148</v>
+        <v>44357</v>
       </c>
       <c r="G515">
         <v>59</v>
@@ -17371,7 +17371,7 @@
         <v>10</v>
       </c>
       <c r="F516" s="1">
-        <v>44251</v>
+        <v>44372</v>
       </c>
       <c r="G516">
         <v>1</v>
@@ -17397,7 +17397,7 @@
         <v>10</v>
       </c>
       <c r="F517" s="1">
-        <v>44894</v>
+        <v>44029</v>
       </c>
       <c r="G517">
         <v>59</v>
@@ -17423,7 +17423,7 @@
         <v>14</v>
       </c>
       <c r="F518" s="1">
-        <v>44400</v>
+        <v>45004</v>
       </c>
       <c r="G518">
         <v>1</v>
@@ -17449,7 +17449,7 @@
         <v>10</v>
       </c>
       <c r="F519" s="1">
-        <v>44934</v>
+        <v>44038</v>
       </c>
       <c r="G519">
         <v>1</v>
@@ -17475,7 +17475,7 @@
         <v>23</v>
       </c>
       <c r="F520" s="1">
-        <v>43849</v>
+        <v>45201</v>
       </c>
       <c r="G520">
         <v>1</v>
@@ -17501,7 +17501,7 @@
         <v>14</v>
       </c>
       <c r="F521" s="1">
-        <v>43992</v>
+        <v>43565</v>
       </c>
       <c r="G521">
         <v>1</v>
@@ -17527,7 +17527,7 @@
         <v>14</v>
       </c>
       <c r="F522" s="1">
-        <v>44476</v>
+        <v>44830</v>
       </c>
       <c r="G522">
         <v>64</v>
@@ -17553,7 +17553,7 @@
         <v>10</v>
       </c>
       <c r="F523" s="1">
-        <v>44825</v>
+        <v>44549</v>
       </c>
       <c r="G523">
         <v>1</v>
@@ -17579,7 +17579,7 @@
         <v>10</v>
       </c>
       <c r="F524" s="1">
-        <v>43685</v>
+        <v>44633</v>
       </c>
       <c r="G524">
         <v>1</v>
@@ -17605,7 +17605,7 @@
         <v>23</v>
       </c>
       <c r="F525" s="1">
-        <v>44741</v>
+        <v>44767</v>
       </c>
       <c r="G525">
         <v>1</v>
